--- a/data2/HEALTH DATA Adopted.xlsx
+++ b/data2/HEALTH DATA Adopted.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jillyutahh/Desktop/Medicare Expansion Project/Data /"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jillyutahh/github/gal/Analyzing-Medicare-Expansion/data2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30533E8C-3C22-4A44-8E16-A9FFC3B99730}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14FEECE-DC6F-5742-818E-A9E8A4ED3FE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5540" yWindow="4520" windowWidth="27280" windowHeight="17800" xr2:uid="{202AB651-BE8A-5F48-814C-ED9AADF7655C}"/>
+    <workbookView xWindow="-30280" yWindow="3560" windowWidth="27280" windowHeight="17800" xr2:uid="{202AB651-BE8A-5F48-814C-ED9AADF7655C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -222,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -234,6 +234,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,18 +558,20 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -579,19 +587,19 @@
       <c r="D1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>36</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>40</v>
       </c>
     </row>
